--- a/001-‘’Cheese‘’/Cheese_RV/003.PickAndPlace_BMI270-RV_Single.xlsx
+++ b/001-‘’Cheese‘’/Cheese_RV/003.PickAndPlace_BMI270-RV_Single.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="213">
   <si>
     <t>Designator</t>
   </si>
@@ -529,130 +529,127 @@
     <t>180kΩ</t>
   </si>
   <si>
-    <t>ESP-12F</t>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>AO3401A_C15127</t>
+  </si>
+  <si>
+    <t>SOT-23_L2.9-W1.3-P1.90-LS2.4-BR</t>
+  </si>
+  <si>
+    <t>9.144mm</t>
+  </si>
+  <si>
+    <t>-29.21mm</t>
+  </si>
+  <si>
+    <t>7.994mm</t>
+  </si>
+  <si>
+    <t>-28.26mm</t>
+  </si>
+  <si>
+    <t>AO3401A</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>0402WGF1002TCE</t>
+  </si>
+  <si>
+    <t>8.128mm</t>
+  </si>
+  <si>
+    <t>-26.924mm</t>
+  </si>
+  <si>
+    <t>7.695mm</t>
+  </si>
+  <si>
+    <t>10kΩ</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>1N5819WS_C191023</t>
+  </si>
+  <si>
+    <t>SOD-323_L1.8-W1.3-LS2.5-RD</t>
+  </si>
+  <si>
+    <t>8.001mm</t>
+  </si>
+  <si>
+    <t>-33.655mm</t>
+  </si>
+  <si>
+    <t>-32.482mm</t>
+  </si>
+  <si>
+    <t>1N5819WS</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>BMI270</t>
+  </si>
+  <si>
+    <t>LGA-14_L3.0-W2.5-P0.50-BR</t>
+  </si>
+  <si>
+    <t>15.001mm</t>
+  </si>
+  <si>
+    <t>15.751mm</t>
+  </si>
+  <si>
+    <t>-32.485mm</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>S2B-PH-K-S(LF)(SN)</t>
+  </si>
+  <si>
+    <t>CONN-TH_S2B-PH-K-S-LF-SN</t>
+  </si>
+  <si>
+    <t>-38.989mm</t>
+  </si>
+  <si>
+    <t>2.81mm</t>
+  </si>
+  <si>
+    <t>ESP1</t>
   </si>
   <si>
     <t>ESP-12F(ESP8266MOD)</t>
   </si>
   <si>
-    <t>footprint_0246</t>
-  </si>
-  <si>
-    <t>15.073mm</t>
-  </si>
-  <si>
-    <t>-15.979mm</t>
-  </si>
-  <si>
-    <t>15.014mm</t>
-  </si>
-  <si>
-    <t>-11.265mm</t>
-  </si>
-  <si>
-    <t>7.522mm</t>
-  </si>
-  <si>
-    <t>-8.979mm</t>
+    <t>WIFIM-SMD_ESP-12F-ESP8266MOD</t>
+  </si>
+  <si>
+    <t>14.986mm</t>
+  </si>
+  <si>
+    <t>-15.986mm</t>
+  </si>
+  <si>
+    <t>-16.637mm</t>
+  </si>
+  <si>
+    <t>7.562mm</t>
+  </si>
+  <si>
+    <t>-8.986mm</t>
   </si>
   <si>
     <t>2.4GHz</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>AO3401A_C15127</t>
-  </si>
-  <si>
-    <t>SOT-23_L2.9-W1.3-P1.90-LS2.4-BR</t>
-  </si>
-  <si>
-    <t>9.144mm</t>
-  </si>
-  <si>
-    <t>-29.21mm</t>
-  </si>
-  <si>
-    <t>7.994mm</t>
-  </si>
-  <si>
-    <t>-28.26mm</t>
-  </si>
-  <si>
-    <t>AO3401A</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>0402WGF1002TCE</t>
-  </si>
-  <si>
-    <t>8.128mm</t>
-  </si>
-  <si>
-    <t>-26.924mm</t>
-  </si>
-  <si>
-    <t>7.695mm</t>
-  </si>
-  <si>
-    <t>10kΩ</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>1N5819WS_C191023</t>
-  </si>
-  <si>
-    <t>SOD-323_L1.8-W1.3-LS2.5-RD</t>
-  </si>
-  <si>
-    <t>8.001mm</t>
-  </si>
-  <si>
-    <t>-33.655mm</t>
-  </si>
-  <si>
-    <t>-32.482mm</t>
-  </si>
-  <si>
-    <t>1N5819WS</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>BMI270</t>
-  </si>
-  <si>
-    <t>LGA-14_L3.0-W2.5-P0.50-BR</t>
-  </si>
-  <si>
-    <t>15.001mm</t>
-  </si>
-  <si>
-    <t>15.751mm</t>
-  </si>
-  <si>
-    <t>-32.485mm</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>S2B-PH-K-S(LF)(SN)</t>
-  </si>
-  <si>
-    <t>CONN-TH_S2B-PH-K-S-LF-SN</t>
-  </si>
-  <si>
-    <t>-38.989mm</t>
-  </si>
-  <si>
-    <t>2.81mm</t>
   </si>
 </sst>
 </file>
@@ -2463,251 +2460,251 @@
         <v>176</v>
       </c>
       <c r="F33" t="s">
+        <v>175</v>
+      </c>
+      <c r="G33" t="s">
+        <v>176</v>
+      </c>
+      <c r="H33" t="s">
         <v>177</v>
       </c>
-      <c r="G33" t="s">
+      <c r="I33" t="s">
         <v>178</v>
       </c>
-      <c r="H33" t="s">
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33">
+        <v>180</v>
+      </c>
+      <c r="M33" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" t="s">
         <v>179</v>
-      </c>
-      <c r="I33" t="s">
-        <v>180</v>
-      </c>
-      <c r="J33">
-        <v>11</v>
-      </c>
-      <c r="K33" t="s">
-        <v>20</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33" t="s">
-        <v>21</v>
-      </c>
-      <c r="N33" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s">
         <v>182</v>
       </c>
-      <c r="B34" t="s">
+      <c r="E34" t="s">
         <v>183</v>
       </c>
-      <c r="C34" t="s">
+      <c r="F34" t="s">
+        <v>182</v>
+      </c>
+      <c r="G34" t="s">
+        <v>183</v>
+      </c>
+      <c r="H34" t="s">
         <v>184</v>
       </c>
-      <c r="D34" t="s">
+      <c r="I34" t="s">
+        <v>183</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" t="s">
         <v>185</v>
-      </c>
-      <c r="E34" t="s">
-        <v>186</v>
-      </c>
-      <c r="F34" t="s">
-        <v>185</v>
-      </c>
-      <c r="G34" t="s">
-        <v>186</v>
-      </c>
-      <c r="H34" t="s">
-        <v>187</v>
-      </c>
-      <c r="I34" t="s">
-        <v>188</v>
-      </c>
-      <c r="J34">
-        <v>3</v>
-      </c>
-      <c r="K34" t="s">
-        <v>20</v>
-      </c>
-      <c r="L34">
-        <v>180</v>
-      </c>
-      <c r="M34" t="s">
-        <v>21</v>
-      </c>
-      <c r="N34" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>186</v>
+      </c>
+      <c r="B35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" t="s">
+        <v>189</v>
+      </c>
+      <c r="E35" t="s">
         <v>190</v>
       </c>
-      <c r="B35" t="s">
+      <c r="F35" t="s">
+        <v>189</v>
+      </c>
+      <c r="G35" t="s">
+        <v>190</v>
+      </c>
+      <c r="H35" t="s">
+        <v>189</v>
+      </c>
+      <c r="I35" t="s">
         <v>191</v>
       </c>
-      <c r="C35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35">
+        <v>270</v>
+      </c>
+      <c r="M35" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" t="s">
         <v>192</v>
-      </c>
-      <c r="E35" t="s">
-        <v>193</v>
-      </c>
-      <c r="F35" t="s">
-        <v>192</v>
-      </c>
-      <c r="G35" t="s">
-        <v>193</v>
-      </c>
-      <c r="H35" t="s">
-        <v>194</v>
-      </c>
-      <c r="I35" t="s">
-        <v>193</v>
-      </c>
-      <c r="J35">
-        <v>2</v>
-      </c>
-      <c r="K35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N35" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" t="s">
+        <v>195</v>
+      </c>
+      <c r="D36" t="s">
         <v>196</v>
       </c>
-      <c r="B36" t="s">
+      <c r="E36" t="s">
+        <v>190</v>
+      </c>
+      <c r="F36" t="s">
+        <v>196</v>
+      </c>
+      <c r="G36" t="s">
+        <v>190</v>
+      </c>
+      <c r="H36" t="s">
         <v>197</v>
       </c>
-      <c r="C36" t="s">
+      <c r="I36" t="s">
         <v>198</v>
       </c>
-      <c r="D36" t="s">
-        <v>199</v>
-      </c>
-      <c r="E36" t="s">
-        <v>200</v>
-      </c>
-      <c r="F36" t="s">
-        <v>199</v>
-      </c>
-      <c r="G36" t="s">
-        <v>200</v>
-      </c>
-      <c r="H36" t="s">
-        <v>199</v>
-      </c>
-      <c r="I36" t="s">
-        <v>201</v>
-      </c>
       <c r="J36">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K36" t="s">
         <v>20</v>
       </c>
       <c r="L36">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="M36" t="s">
         <v>21</v>
       </c>
       <c r="N36" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>199</v>
+      </c>
+      <c r="B37" t="s">
+        <v>200</v>
+      </c>
+      <c r="C37" t="s">
+        <v>201</v>
+      </c>
+      <c r="D37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" t="s">
+        <v>202</v>
+      </c>
+      <c r="F37" t="s">
+        <v>83</v>
+      </c>
+      <c r="G37" t="s">
+        <v>202</v>
+      </c>
+      <c r="H37" t="s">
         <v>203</v>
       </c>
-      <c r="B37" t="s">
-        <v>204</v>
-      </c>
-      <c r="C37" t="s">
-        <v>205</v>
-      </c>
-      <c r="D37" t="s">
-        <v>206</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="I37" t="s">
+        <v>202</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37">
+        <v>180</v>
+      </c>
+      <c r="M37" t="s">
+        <v>113</v>
+      </c>
+      <c r="N37" t="s">
         <v>200</v>
-      </c>
-      <c r="F37" t="s">
-        <v>206</v>
-      </c>
-      <c r="G37" t="s">
-        <v>200</v>
-      </c>
-      <c r="H37" t="s">
-        <v>207</v>
-      </c>
-      <c r="I37" t="s">
-        <v>208</v>
-      </c>
-      <c r="J37">
-        <v>14</v>
-      </c>
-      <c r="K37" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37">
-        <v>90</v>
-      </c>
-      <c r="M37" t="s">
-        <v>21</v>
-      </c>
-      <c r="N37" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" t="s">
+        <v>205</v>
+      </c>
+      <c r="C38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D38" t="s">
+        <v>207</v>
+      </c>
+      <c r="E38" t="s">
+        <v>208</v>
+      </c>
+      <c r="F38" t="s">
+        <v>207</v>
+      </c>
+      <c r="G38" t="s">
         <v>209</v>
       </c>
-      <c r="B38" t="s">
+      <c r="H38" t="s">
         <v>210</v>
       </c>
-      <c r="C38" t="s">
+      <c r="I38" t="s">
         <v>211</v>
       </c>
-      <c r="D38" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="J38">
+        <v>11</v>
+      </c>
+      <c r="K38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38">
+        <v>270</v>
+      </c>
+      <c r="M38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38" t="s">
         <v>212</v>
-      </c>
-      <c r="F38" t="s">
-        <v>83</v>
-      </c>
-      <c r="G38" t="s">
-        <v>212</v>
-      </c>
-      <c r="H38" t="s">
-        <v>213</v>
-      </c>
-      <c r="I38" t="s">
-        <v>212</v>
-      </c>
-      <c r="J38">
-        <v>2</v>
-      </c>
-      <c r="K38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38">
-        <v>180</v>
-      </c>
-      <c r="M38" t="s">
-        <v>113</v>
-      </c>
-      <c r="N38" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
